--- a/assets/presupuestos.xlsx
+++ b/assets/presupuestos.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Presupuesto</t>
   </si>
   <si>
     <t>P001</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>P005</t>
   </si>
 </sst>
 </file>
@@ -377,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +405,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/presupuestos.xlsx
+++ b/assets/presupuestos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Presupuesto</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>P009</t>
   </si>
 </sst>
 </file>
@@ -389,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,6 +437,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/presupuestos.xlsx
+++ b/assets/presupuestos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Presupuesto</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>P009</t>
+  </si>
+  <si>
+    <t>P010</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,6 +460,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/presupuestos.xlsx
+++ b/assets/presupuestos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Presupuesto</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>P010</t>
+  </si>
+  <si>
+    <t>P011</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,6 +468,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/presupuestos.xlsx
+++ b/assets/presupuestos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Presupuesto</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>P011</t>
+  </si>
+  <si>
+    <t>P012</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +476,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/presupuestos.xlsx
+++ b/assets/presupuestos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Presupuesto</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>P012</t>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>P015</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>P020</t>
   </si>
 </sst>
 </file>
@@ -410,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,6 +505,46 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
